--- a/counting_cars_project/data/speed_counting_cars.xlsx
+++ b/counting_cars_project/data/speed_counting_cars.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basilchattha/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basilchattha/Documents/r_projects/counting_cars_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04856A14-53ED-7D48-8917-1B809D3DFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2844F2C1-F32A-5A40-87E3-BF7F27A6C22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D83957A4-E9D3-5C46-9C6F-43CDA73290F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D83957A4-E9D3-5C46-9C6F-43CDA73290F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="15">
   <si>
     <t>Sedan</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>vehicle_type</t>
+  </si>
+  <si>
+    <t>flashing</t>
   </si>
 </sst>
 </file>
@@ -487,9 +490,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D7BBBD-FDEF-7041-8ADF-CC9096EF241E}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -498,7 +503,7 @@
     <col min="5" max="7" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -520,8 +525,11 @@
       <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +540,7 @@
         <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -543,8 +551,12 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f>IF(B2 &gt; 34, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,8 +578,12 @@
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">IF(B3 &gt; 35, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,8 +605,12 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,8 +632,12 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,8 +659,12 @@
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,8 +686,12 @@
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,8 +713,12 @@
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -704,8 +740,12 @@
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,8 +767,12 @@
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,8 +794,12 @@
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,8 +821,12 @@
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -796,8 +848,12 @@
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,8 +875,12 @@
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,8 +902,12 @@
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -851,7 +915,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -865,8 +929,12 @@
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -888,8 +956,12 @@
       <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,8 +983,12 @@
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -934,8 +1010,12 @@
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -957,8 +1037,12 @@
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +1064,12 @@
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,8 +1091,12 @@
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1026,8 +1118,12 @@
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1049,8 +1145,12 @@
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,8 +1172,12 @@
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1095,8 +1199,12 @@
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1226,12 @@
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,8 +1253,12 @@
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1164,8 +1280,12 @@
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1307,12 @@
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1210,8 +1334,12 @@
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1233,8 +1361,12 @@
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,8 +1388,12 @@
       <c r="G33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,8 +1415,12 @@
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1428,7 @@
         <v>36</v>
       </c>
       <c r="C35" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1302,8 +1442,12 @@
       <c r="G35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,8 +1469,12 @@
       <c r="G36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,8 +1496,12 @@
       <c r="G37" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1371,8 +1523,12 @@
       <c r="G38" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,8 +1550,12 @@
       <c r="G39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,8 +1577,12 @@
       <c r="G40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,8 +1604,12 @@
       <c r="G41" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,8 +1631,12 @@
       <c r="G42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,8 +1658,12 @@
       <c r="G43" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,8 +1685,12 @@
       <c r="G44" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -1532,8 +1712,12 @@
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1555,8 +1739,12 @@
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,8 +1766,12 @@
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1601,8 +1793,12 @@
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,8 +1820,12 @@
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1647,8 +1847,12 @@
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1670,8 +1874,12 @@
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,8 +1901,12 @@
       <c r="G52" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="C53" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -1716,8 +1928,12 @@
       <c r="G53" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1739,8 +1955,12 @@
       <c r="G54" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1762,8 +1982,12 @@
       <c r="G55" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1785,8 +2009,12 @@
       <c r="G56" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,8 +2036,12 @@
       <c r="G57" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1831,8 +2063,12 @@
       <c r="G58" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1854,8 +2090,12 @@
       <c r="G59" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -1877,8 +2117,12 @@
       <c r="G60" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -1900,8 +2144,12 @@
       <c r="G61" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1923,8 +2171,12 @@
       <c r="G62" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -1946,8 +2198,12 @@
       <c r="G63" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1969,8 +2225,12 @@
       <c r="G64" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -1992,8 +2252,12 @@
       <c r="G65" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -2015,8 +2279,12 @@
       <c r="G66" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,8 +2306,12 @@
       <c r="G67" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f t="shared" ref="H67:H82" si="1">IF(B67 &gt; 35, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -2061,8 +2333,12 @@
       <c r="G68" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -2084,8 +2360,12 @@
       <c r="G69" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2107,8 +2387,12 @@
       <c r="G70" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -2130,8 +2414,12 @@
       <c r="G71" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2153,8 +2441,12 @@
       <c r="G72" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -2176,8 +2468,12 @@
       <c r="G73" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -2199,8 +2495,12 @@
       <c r="G74" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -2222,8 +2522,12 @@
       <c r="G75" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -2231,7 +2535,7 @@
         <v>36</v>
       </c>
       <c r="C76" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -2243,10 +2547,14 @@
         <v>7</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -2267,6 +2575,2054 @@
       </c>
       <c r="G77" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>28</v>
+      </c>
+      <c r="C78" s="1">
+        <v>28</v>
+      </c>
+      <c r="D78">
+        <f>IF(B78&lt;&gt;C78,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D142" si="2">IF(B79&lt;&gt;C79,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1">
+        <v>35</v>
+      </c>
+      <c r="C81" s="1">
+        <v>32</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1">
+        <v>31</v>
+      </c>
+      <c r="C82" s="1">
+        <v>31</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>31</v>
+      </c>
+      <c r="C83" s="1">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83:H114" si="3">IF(B83 &gt; 35, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>32</v>
+      </c>
+      <c r="C84" s="1">
+        <v>32</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>32</v>
+      </c>
+      <c r="C85" s="1">
+        <v>31</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>28</v>
+      </c>
+      <c r="C86" s="1">
+        <v>28</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>29</v>
+      </c>
+      <c r="C87" s="1">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>31</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="1">
+        <v>33</v>
+      </c>
+      <c r="C89" s="1">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>32</v>
+      </c>
+      <c r="C90" s="1">
+        <v>31</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1">
+        <v>31</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>29</v>
+      </c>
+      <c r="C93" s="1">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>31</v>
+      </c>
+      <c r="C94" s="1">
+        <v>31</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>31</v>
+      </c>
+      <c r="C95" s="1">
+        <v>31</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1">
+        <v>27</v>
+      </c>
+      <c r="C96" s="1">
+        <v>28</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>30</v>
+      </c>
+      <c r="C97" s="1">
+        <v>31</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>29</v>
+      </c>
+      <c r="C98" s="1">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>29</v>
+      </c>
+      <c r="C100" s="1">
+        <v>29</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>34</v>
+      </c>
+      <c r="C101" s="1">
+        <v>34</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <v>26</v>
+      </c>
+      <c r="C102" s="1">
+        <v>26</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1">
+        <v>32</v>
+      </c>
+      <c r="C103" s="1">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1">
+        <v>31</v>
+      </c>
+      <c r="C104" s="1">
+        <v>30</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>31</v>
+      </c>
+      <c r="C105" s="1">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>29</v>
+      </c>
+      <c r="C106" s="1">
+        <v>28</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>28</v>
+      </c>
+      <c r="C107" s="1">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1">
+        <v>29</v>
+      </c>
+      <c r="C108" s="1">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <v>27</v>
+      </c>
+      <c r="C109" s="1">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>36</v>
+      </c>
+      <c r="C110" s="1">
+        <v>36</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1">
+        <v>28</v>
+      </c>
+      <c r="C111" s="1">
+        <v>28</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>29</v>
+      </c>
+      <c r="C112" s="1">
+        <v>29</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>31</v>
+      </c>
+      <c r="C113" s="1">
+        <v>31</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1">
+        <v>32</v>
+      </c>
+      <c r="C114" s="1">
+        <v>33</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="1">
+        <v>32</v>
+      </c>
+      <c r="C115" s="1">
+        <v>32</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ref="H115:H150" si="4">IF(B115 &gt; 35, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <v>37</v>
+      </c>
+      <c r="C116" s="1">
+        <v>35</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>34</v>
+      </c>
+      <c r="C117" s="1">
+        <v>34</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1">
+        <v>28</v>
+      </c>
+      <c r="C118" s="1">
+        <v>28</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1">
+        <v>29</v>
+      </c>
+      <c r="C119" s="1">
+        <v>29</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>31</v>
+      </c>
+      <c r="C120" s="1">
+        <v>31</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>30</v>
+      </c>
+      <c r="C121" s="1">
+        <v>30</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>27</v>
+      </c>
+      <c r="C122" s="1">
+        <v>27</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="1">
+        <v>29</v>
+      </c>
+      <c r="C123" s="1">
+        <v>31</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1">
+        <v>33</v>
+      </c>
+      <c r="C124" s="1">
+        <v>33</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>31</v>
+      </c>
+      <c r="C125" s="1">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1">
+        <v>28</v>
+      </c>
+      <c r="C126" s="1">
+        <v>28</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1">
+        <v>29</v>
+      </c>
+      <c r="C127" s="1">
+        <v>30</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>31</v>
+      </c>
+      <c r="C128" s="1">
+        <v>31</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1">
+        <v>30</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1">
+        <v>34</v>
+      </c>
+      <c r="C130" s="1">
+        <v>34</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="1">
+        <v>36</v>
+      </c>
+      <c r="C131" s="1">
+        <v>37</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <v>30</v>
+      </c>
+      <c r="C132" s="1">
+        <v>30</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1">
+        <v>31</v>
+      </c>
+      <c r="C133" s="1">
+        <v>31</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>27</v>
+      </c>
+      <c r="C134" s="1">
+        <v>27</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1">
+        <v>25</v>
+      </c>
+      <c r="C135" s="1">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="1">
+        <v>29</v>
+      </c>
+      <c r="C136" s="1">
+        <v>29</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1">
+        <v>30</v>
+      </c>
+      <c r="C137" s="1">
+        <v>31</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="1">
+        <v>31</v>
+      </c>
+      <c r="C138" s="1">
+        <v>31</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1">
+        <v>31</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="1">
+        <v>28</v>
+      </c>
+      <c r="C140" s="1">
+        <v>29</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="1">
+        <v>29</v>
+      </c>
+      <c r="C141" s="1">
+        <v>29</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="1">
+        <v>28</v>
+      </c>
+      <c r="C142" s="1">
+        <v>28</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="1">
+        <v>30</v>
+      </c>
+      <c r="C143" s="1">
+        <v>31</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ref="D143:D150" si="5">IF(B143&lt;&gt;C143,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1">
+        <v>31</v>
+      </c>
+      <c r="C144" s="1">
+        <v>31</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1">
+        <v>29</v>
+      </c>
+      <c r="C145" s="1">
+        <v>29</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>28</v>
+      </c>
+      <c r="C146" s="1">
+        <v>29</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="1">
+        <v>33</v>
+      </c>
+      <c r="C147" s="1">
+        <v>31</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="1">
+        <v>30</v>
+      </c>
+      <c r="C148" s="1">
+        <v>30</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="1">
+        <v>29</v>
+      </c>
+      <c r="C149" s="1">
+        <v>29</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="1">
+        <v>27</v>
+      </c>
+      <c r="C150" s="1">
+        <v>27</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
